--- a/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_10mi.xlsx
+++ b/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_10mi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -71,52 +71,34 @@
     <t xml:space="preserve">total_risk_resp</t>
   </si>
   <si>
-    <t xml:space="preserve">DAIKIN AMERICA INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECATUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">552.179862807553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191.164160647396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMOURS EL DORADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL DORADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1016.4657349007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5899847460516</t>
+    <t xml:space="preserve">Daikin America Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decatur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours El Dorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Dorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours Chambers Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepwater</t>
   </si>
   <si>
     <t xml:space="preserve">ARKEMA, INC.</t>
   </si>
   <si>
-    <t xml:space="preserve">CALVERT CITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">698.358246272251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0602666133208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMOURS LOUISVILLE WORKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOUISVILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480.615153800134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1151.99863263206</t>
+    <t xml:space="preserve">Calvert City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours Louisville Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisville</t>
   </si>
   <si>
     <t xml:space="preserve">Iofina Chemical Inc.</t>
@@ -125,58 +107,28 @@
     <t xml:space="preserve">Covington</t>
   </si>
   <si>
-    <t xml:space="preserve">482.413781082325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1168.60882111449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HONEYWELL INTERNATIONAL INC - GEISMAR COMPLEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEISMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">555.22662309248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328.638779934022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEXICHEM FLUOR INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINT GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">506.724616424918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329.691896909757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISLECHEM LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAND ISLAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.27861589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1370.95940687707</t>
+    <t xml:space="preserve">Honeywell International - Geismar Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geismar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexichem Fluor Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islechem LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Island</t>
   </si>
   <si>
     <t xml:space="preserve">Chemours - Corpus Christi Plant</t>
   </si>
   <si>
     <t xml:space="preserve">Gregory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">429.942996016745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.462348441186</t>
   </si>
 </sst>
 </file>
@@ -580,14 +532,14 @@
       <c r="D2" t="n">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
+      <c r="E2" t="n">
+        <v>552.179862807553</v>
       </c>
       <c r="F2" t="n">
         <v>105557</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
+      <c r="G2" t="n">
+        <v>191.164160647396</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -628,10 +580,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>66990</v>
@@ -639,14 +591,14 @@
       <c r="D3" t="n">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
+      <c r="E3" t="n">
+        <v>1016.4657349007</v>
       </c>
       <c r="F3" t="n">
         <v>36176</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
+      <c r="G3" t="n">
+        <v>35.5899847460516</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -687,410 +639,469 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>843010</v>
+        <v>2619</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
+        <v>306</v>
+      </c>
+      <c r="E4" t="n">
+        <v>465.982576285131</v>
       </c>
       <c r="F4" t="n">
-        <v>34960</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
+        <v>394757</v>
+      </c>
+      <c r="G4" t="n">
+        <v>847.149700632693</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.83</v>
+        <v>0.12</v>
       </c>
       <c r="J4" t="n">
-        <v>33695</v>
+        <v>251280</v>
       </c>
       <c r="K4" t="n">
-        <v>625</v>
+        <v>107713</v>
       </c>
       <c r="L4" t="n">
-        <v>68</v>
+        <v>1195</v>
       </c>
       <c r="M4" t="n">
-        <v>69</v>
+        <v>15665</v>
       </c>
       <c r="N4" t="n">
-        <v>709</v>
+        <v>42304</v>
       </c>
       <c r="O4" t="n">
-        <v>53.2628214285714</v>
+        <v>70.4335463917526</v>
       </c>
       <c r="P4" t="n">
-        <v>6.25440564467844</v>
+        <v>6.44340495189268</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.87057212005925</v>
+        <v>7.50338941192498</v>
       </c>
       <c r="R4" t="n">
-        <v>31.4285714285714</v>
+        <v>32.2368421052632</v>
       </c>
       <c r="S4" t="n">
-        <v>0.832142857142857</v>
+        <v>0.347039473684211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>3707770</v>
+        <v>843010</v>
       </c>
       <c r="D5" t="n">
-        <v>461</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>698.358246272251</v>
       </c>
       <c r="F5" t="n">
-        <v>553668</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+        <v>34960</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50.0602666133208</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.069</v>
+        <v>0.83</v>
       </c>
       <c r="J5" t="n">
-        <v>387792</v>
+        <v>33695</v>
       </c>
       <c r="K5" t="n">
-        <v>134546</v>
+        <v>625</v>
       </c>
       <c r="L5" t="n">
-        <v>1173</v>
+        <v>68</v>
       </c>
       <c r="M5" t="n">
-        <v>10148</v>
+        <v>69</v>
       </c>
       <c r="N5" t="n">
-        <v>30629</v>
+        <v>709</v>
       </c>
       <c r="O5" t="n">
-        <v>50.7676734234234</v>
+        <v>53.2628214285714</v>
       </c>
       <c r="P5" t="n">
-        <v>8.55059252947863</v>
+        <v>6.25440564467844</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.5272202506423</v>
+        <v>5.87057212005925</v>
       </c>
       <c r="R5" t="n">
-        <v>30.1304347826087</v>
+        <v>31.4285714285714</v>
       </c>
       <c r="S5" t="n">
-        <v>0.414782608695652</v>
+        <v>0.832142857142857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6"/>
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3707770</v>
+      </c>
       <c r="D6" t="n">
-        <v>414</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
+        <v>461</v>
+      </c>
+      <c r="E6" t="n">
+        <v>480.615153800134</v>
       </c>
       <c r="F6" t="n">
-        <v>563753</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
+        <v>553668</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1151.99863263206</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.11</v>
+        <v>0.069</v>
       </c>
       <c r="J6" t="n">
-        <v>456893</v>
+        <v>387792</v>
       </c>
       <c r="K6" t="n">
-        <v>74121</v>
+        <v>134546</v>
       </c>
       <c r="L6" t="n">
-        <v>626</v>
+        <v>1173</v>
       </c>
       <c r="M6" t="n">
-        <v>10942</v>
+        <v>10148</v>
       </c>
       <c r="N6" t="n">
-        <v>18689</v>
+        <v>30629</v>
       </c>
       <c r="O6" t="n">
-        <v>60.7478819095477</v>
+        <v>50.7676734234234</v>
       </c>
       <c r="P6" t="n">
-        <v>9.02237931054774</v>
+        <v>8.55059252947863</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.70246182079913</v>
+        <v>10.5272202506423</v>
       </c>
       <c r="R6" t="n">
-        <v>29.636803874092</v>
+        <v>30.1304347826087</v>
       </c>
       <c r="S6" t="n">
-        <v>0.387409200968523</v>
+        <v>0.414782608695652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="n">
-        <v>413584</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C7"/>
       <c r="D7" t="n">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
+        <v>414</v>
+      </c>
+      <c r="E7" t="n">
+        <v>482.413781082325</v>
       </c>
       <c r="F7" t="n">
-        <v>182469</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
+        <v>563753</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1168.60882111449</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.52</v>
+        <v>0.11</v>
       </c>
       <c r="J7" t="n">
-        <v>119600</v>
+        <v>456893</v>
       </c>
       <c r="K7" t="n">
-        <v>49943</v>
+        <v>74121</v>
       </c>
       <c r="L7" t="n">
-        <v>141</v>
+        <v>626</v>
       </c>
       <c r="M7" t="n">
-        <v>3623</v>
+        <v>10942</v>
       </c>
       <c r="N7" t="n">
-        <v>9220</v>
+        <v>18689</v>
       </c>
       <c r="O7" t="n">
-        <v>72.2608507462687</v>
+        <v>60.7478819095477</v>
       </c>
       <c r="P7" t="n">
-        <v>5.92115845564032</v>
+        <v>9.02237931054774</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.6311776732443</v>
+        <v>9.70246182079913</v>
       </c>
       <c r="R7" t="n">
-        <v>79.4202898550725</v>
+        <v>29.636803874092</v>
       </c>
       <c r="S7" t="n">
-        <v>0.521739130434783</v>
+        <v>0.387409200968523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>18331</v>
+        <v>413584</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
+        <v>69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>555.22662309248</v>
       </c>
       <c r="F8" t="n">
-        <v>167063</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
+        <v>182469</v>
+      </c>
+      <c r="G8" t="n">
+        <v>328.638779934022</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="J8" t="n">
-        <v>103097</v>
+        <v>119600</v>
       </c>
       <c r="K8" t="n">
-        <v>51556</v>
+        <v>49943</v>
       </c>
       <c r="L8" t="n">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="M8" t="n">
-        <v>4141</v>
+        <v>3623</v>
       </c>
       <c r="N8" t="n">
-        <v>8749</v>
+        <v>9220</v>
       </c>
       <c r="O8" t="n">
-        <v>75.8387313432836</v>
+        <v>72.2608507462687</v>
       </c>
       <c r="P8" t="n">
-        <v>5.71423633158641</v>
+        <v>5.92115845564032</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.25449505337132</v>
+        <v>6.6311776732443</v>
       </c>
       <c r="R8" t="n">
-        <v>80.5882352941177</v>
+        <v>79.4202898550725</v>
       </c>
       <c r="S8" t="n">
-        <v>0.557352941176471</v>
+        <v>0.521739130434783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9"/>
+        <v>34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18331</v>
+      </c>
       <c r="D9" t="n">
-        <v>280</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="E9" t="n">
+        <v>506.724616424918</v>
       </c>
       <c r="F9" t="n">
-        <v>303364</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
+        <v>167063</v>
+      </c>
+      <c r="G9" t="n">
+        <v>329.691896909757</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.086</v>
+        <v>0.47</v>
       </c>
       <c r="J9" t="n">
-        <v>246489</v>
+        <v>103097</v>
       </c>
       <c r="K9" t="n">
-        <v>27496</v>
+        <v>51556</v>
       </c>
       <c r="L9" t="n">
-        <v>2358</v>
+        <v>181</v>
       </c>
       <c r="M9" t="n">
-        <v>9273</v>
+        <v>4141</v>
       </c>
       <c r="N9" t="n">
-        <v>17628</v>
+        <v>8749</v>
       </c>
       <c r="O9" t="n">
-        <v>57.1713522727273</v>
+        <v>75.8387313432836</v>
       </c>
       <c r="P9" t="n">
-        <v>8.43956350709922</v>
+        <v>5.71423633158641</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.26747240535932</v>
+        <v>7.25449505337132</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1428571428571</v>
+        <v>80.5882352941177</v>
       </c>
       <c r="S9" t="n">
-        <v>0.25</v>
+        <v>0.557352941176471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>280</v>
+      </c>
+      <c r="E10" t="n">
+        <v>221.27861589355</v>
+      </c>
+      <c r="F10" t="n">
+        <v>303364</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1370.95940687707</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="J10" t="n">
+        <v>246489</v>
+      </c>
+      <c r="K10" t="n">
+        <v>27496</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2358</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9273</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17628</v>
+      </c>
+      <c r="O10" t="n">
+        <v>57.1713522727273</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8.43956350709922</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9.26747240535932</v>
+      </c>
+      <c r="R10" t="n">
+        <v>20.1428571428571</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="n">
         <v>17240</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E11" t="n">
+        <v>429.942996016745</v>
+      </c>
+      <c r="F11" t="n">
         <v>51362</v>
       </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G11" t="n">
+        <v>119.462348441186</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.7</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>46644</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>1062</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>322</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M11" t="n">
         <v>623</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>20610</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>62.32375</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>5.87796124304657</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>5.93507974024599</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R11" t="n">
         <v>20</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>0.212121212121212</v>
       </c>
     </row>

--- a/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_10mi.xlsx
+++ b/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_10mi.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">pop</t>
   </si>
   <si>
-    <t xml:space="preserve">pop_sq_mile_10mi</t>
+    <t xml:space="preserve">pop_sq_mile_1mi</t>
   </si>
   <si>
     <t xml:space="preserve">rural_facility</t>
